--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20250930_171455.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20250930_171455.xlsx
@@ -5219,7 +5219,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
